--- a/Oferta/Plantas renovables.xlsx
+++ b/Oferta/Plantas renovables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Switch UH\BDLP_nov 22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoquintero/Documents/Investigacion andes-EDF/Switch/Sin título/Oferta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{422363E6-A731-4B14-8C3B-E1A2FBFE4F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F071A40D-0FD4-FF46-9C98-5B8988672E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantas renovables" sheetId="1" r:id="rId1"/>
@@ -856,7 +856,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1395,7 +1395,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1683,21 +1683,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>214</v>
       </c>
@@ -1731,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>105</v>
       </c>
@@ -1748,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>222</v>
       </c>
@@ -1765,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>190</v>
       </c>
@@ -1782,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>186</v>
       </c>
@@ -1799,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>219</v>
       </c>
@@ -1816,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>362</v>
       </c>
@@ -1833,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>96</v>
       </c>
@@ -1850,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>213</v>
       </c>
@@ -1867,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>126</v>
       </c>
@@ -1884,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>198</v>
       </c>
@@ -1901,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>199</v>
       </c>
@@ -1918,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>191</v>
       </c>
@@ -1935,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>373</v>
       </c>
@@ -1952,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>303</v>
       </c>
@@ -1969,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>304</v>
       </c>
@@ -1986,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>305</v>
       </c>
@@ -2003,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>346</v>
       </c>
@@ -2020,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>200</v>
       </c>
@@ -2037,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>221</v>
       </c>
@@ -2054,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2071,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>177</v>
       </c>
@@ -2088,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>355</v>
       </c>
@@ -2105,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>348</v>
       </c>
@@ -2122,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>350</v>
       </c>
@@ -2139,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>297</v>
       </c>
@@ -2156,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>227</v>
       </c>
@@ -2173,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>332</v>
       </c>
@@ -2190,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>314</v>
       </c>
@@ -2207,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>312</v>
       </c>
@@ -2224,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>94</v>
       </c>
@@ -2241,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>364</v>
       </c>
@@ -2258,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>218</v>
       </c>
@@ -2275,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>98</v>
       </c>
@@ -2292,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>225</v>
       </c>
@@ -2309,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>212</v>
       </c>
@@ -2326,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>97</v>
       </c>
@@ -2343,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>290</v>
       </c>
@@ -2360,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>192</v>
       </c>
@@ -2377,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>196</v>
       </c>
@@ -2394,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>195</v>
       </c>
@@ -2411,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>361</v>
       </c>
@@ -2428,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>215</v>
       </c>
@@ -2445,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>294</v>
       </c>
@@ -2462,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>333</v>
       </c>
@@ -2479,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>360</v>
       </c>
@@ -2496,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>220</v>
       </c>
@@ -2513,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>224</v>
       </c>
@@ -2530,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>193</v>
       </c>
@@ -2547,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>226</v>
       </c>
@@ -2564,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>340</v>
       </c>
@@ -2581,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>179</v>
       </c>
@@ -2598,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>201</v>
       </c>
@@ -2615,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>99</v>
       </c>
@@ -2632,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>89</v>
       </c>
@@ -2649,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>101</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>223</v>
       </c>
@@ -2683,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>91</v>
       </c>
@@ -2700,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>174</v>
       </c>
@@ -2717,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>88</v>
       </c>
@@ -2734,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>90</v>
       </c>
@@ -2751,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>317</v>
       </c>
@@ -2768,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>318</v>
       </c>
@@ -2785,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>87</v>
       </c>
@@ -2802,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>93</v>
       </c>
@@ -2819,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>293</v>
       </c>
@@ -2836,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>187</v>
       </c>
@@ -2853,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>295</v>
       </c>
@@ -2870,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>92</v>
       </c>
@@ -2887,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>86</v>
       </c>
@@ -2904,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>41</v>
       </c>
@@ -2921,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>322</v>
       </c>
@@ -2938,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>84</v>
       </c>
@@ -2955,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>159</v>
       </c>
@@ -2972,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2989,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2</v>
       </c>
@@ -3006,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3023,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>266</v>
       </c>
@@ -3040,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>257</v>
       </c>
@@ -3057,7 +3062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>235</v>
       </c>
@@ -3074,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>107</v>
       </c>
@@ -3091,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>262</v>
       </c>
@@ -3108,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>258</v>
       </c>
@@ -3125,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>113</v>
       </c>
@@ -3142,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5</v>
       </c>
@@ -3159,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>246</v>
       </c>
@@ -3176,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>245</v>
       </c>
@@ -3193,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>247</v>
       </c>
@@ -3210,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>260</v>
       </c>
@@ -3227,7 +3232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>9</v>
       </c>
@@ -3244,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>263</v>
       </c>
@@ -3261,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10</v>
       </c>
@@ -3278,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>273</v>
       </c>
@@ -3295,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>131</v>
       </c>
@@ -3312,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>242</v>
       </c>
@@ -3329,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>13</v>
       </c>
@@ -3346,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>63</v>
       </c>
@@ -3363,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>288</v>
       </c>
@@ -3380,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>250</v>
       </c>
@@ -3397,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>24</v>
       </c>
@@ -3414,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>252</v>
       </c>
@@ -3431,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>25</v>
       </c>
@@ -3448,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>28</v>
       </c>
@@ -3465,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>231</v>
       </c>
@@ -3482,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>251</v>
       </c>
@@ -3499,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>268</v>
       </c>
@@ -3516,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>30</v>
       </c>
@@ -3533,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>256</v>
       </c>
@@ -3550,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>40</v>
       </c>
@@ -3567,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>269</v>
       </c>
@@ -3584,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>236</v>
       </c>
@@ -3601,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>280</v>
       </c>
@@ -3618,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>281</v>
       </c>
@@ -3635,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>31</v>
       </c>
@@ -3652,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>239</v>
       </c>
@@ -3669,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>42</v>
       </c>
@@ -3686,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>127</v>
       </c>
@@ -3703,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>282</v>
       </c>
@@ -3720,7 +3725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>141</v>
       </c>
@@ -3737,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>32</v>
       </c>
@@ -3754,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>188</v>
       </c>
@@ -3771,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>34</v>
       </c>
@@ -3788,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>35</v>
       </c>
@@ -3805,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>57</v>
       </c>
@@ -3822,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>261</v>
       </c>
@@ -3839,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>284</v>
       </c>
@@ -3856,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>234</v>
       </c>
@@ -3873,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>50</v>
       </c>
@@ -3890,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>51</v>
       </c>
@@ -3907,7 +3912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>276</v>
       </c>
@@ -3924,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>61</v>
       </c>
@@ -3941,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>278</v>
       </c>
@@ -3958,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>271</v>
       </c>
@@ -3975,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>244</v>
       </c>
@@ -3992,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>272</v>
       </c>
@@ -4009,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>230</v>
       </c>
@@ -4026,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>274</v>
       </c>
@@ -4043,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>53</v>
       </c>
@@ -4060,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>283</v>
       </c>
@@ -4077,7 +4082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>243</v>
       </c>
@@ -4094,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>202</v>
       </c>
@@ -4111,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>277</v>
       </c>
@@ -4128,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>64</v>
       </c>
@@ -4145,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>45</v>
       </c>
@@ -4162,7 +4167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>150</v>
       </c>
@@ -4179,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>285</v>
       </c>
@@ -4196,7 +4201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>240</v>
       </c>
@@ -4213,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>279</v>
       </c>
@@ -4230,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4247,7 +4252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>148</v>
       </c>
@@ -4264,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>267</v>
       </c>
@@ -4281,7 +4286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>233</v>
       </c>
@@ -4298,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>164</v>
       </c>
@@ -4315,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>146</v>
       </c>
@@ -4332,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>241</v>
       </c>
@@ -4349,7 +4354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>147</v>
       </c>
@@ -4366,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>232</v>
       </c>
@@ -4383,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>145</v>
       </c>
@@ -4400,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>237</v>
       </c>
@@ -4417,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>69</v>
       </c>
@@ -4434,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>270</v>
       </c>
@@ -4451,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>249</v>
       </c>
@@ -4468,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>265</v>
       </c>
@@ -4485,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>115</v>
       </c>
@@ -4502,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>70</v>
       </c>
@@ -4519,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>253</v>
       </c>
@@ -4536,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>143</v>
       </c>
@@ -4553,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>142</v>
       </c>
@@ -4570,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>144</v>
       </c>
@@ -4587,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>238</v>
       </c>
@@ -4604,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>264</v>
       </c>
@@ -4621,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>254</v>
       </c>
@@ -4638,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>138</v>
       </c>
@@ -4655,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>81</v>
       </c>
@@ -4672,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>82</v>
       </c>
@@ -4689,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>132</v>
       </c>
@@ -4706,7 +4711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>83</v>
       </c>
@@ -4723,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>248</v>
       </c>
@@ -4740,7 +4745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>140</v>
       </c>
@@ -4757,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>255</v>
       </c>
@@ -4774,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>286</v>
       </c>
@@ -4791,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>287</v>
       </c>
@@ -4808,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>137</v>
       </c>
@@ -4825,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>135</v>
       </c>
@@ -4842,7 +4847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>370</v>
       </c>
@@ -4859,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>369</v>
       </c>
@@ -4876,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>371</v>
       </c>
@@ -4893,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>163</v>
       </c>
@@ -4910,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>229</v>
       </c>
@@ -4927,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>162</v>
       </c>
@@ -4944,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>134</v>
       </c>
@@ -4961,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>133</v>
       </c>
@@ -4978,7 +4983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>368</v>
       </c>
@@ -4995,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>259</v>
       </c>
@@ -5012,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>6</v>
       </c>
@@ -5029,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>7</v>
       </c>
@@ -5046,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>139</v>
       </c>
@@ -5063,7 +5068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>157</v>
       </c>
@@ -5080,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>15</v>
       </c>
@@ -5097,7 +5102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>14</v>
       </c>
@@ -5114,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>16</v>
       </c>
@@ -5131,7 +5136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>367</v>
       </c>
@@ -5148,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>19</v>
       </c>
@@ -5165,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>17</v>
       </c>
@@ -5182,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>166</v>
       </c>
@@ -5199,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>18</v>
       </c>
@@ -5216,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>20</v>
       </c>
@@ -5233,7 +5238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>21</v>
       </c>
@@ -5250,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>22</v>
       </c>
@@ -5267,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>130</v>
       </c>
@@ -5284,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>128</v>
       </c>
@@ -5301,7 +5306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>76</v>
       </c>
@@ -5318,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>77</v>
       </c>
@@ -5335,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>78</v>
       </c>
@@ -5352,7 +5357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>79</v>
       </c>
@@ -5369,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>151</v>
       </c>
@@ -5386,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>136</v>
       </c>
@@ -5403,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>73</v>
       </c>
@@ -5420,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>75</v>
       </c>
@@ -5437,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>180</v>
       </c>
@@ -5454,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>74</v>
       </c>
@@ -5471,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>378</v>
       </c>
@@ -5488,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>379</v>
       </c>
@@ -5505,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>380</v>
       </c>
@@ -5522,7 +5527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>381</v>
       </c>
@@ -5539,7 +5544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>386</v>
       </c>
@@ -5556,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>393</v>
       </c>
@@ -5573,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>394</v>
       </c>
@@ -5590,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>395</v>
       </c>
@@ -5607,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>406</v>
       </c>
@@ -5624,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>414</v>
       </c>
@@ -5641,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>415</v>
       </c>
@@ -5658,7 +5663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>417</v>
       </c>
@@ -5675,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>418</v>
       </c>
@@ -5692,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>419</v>
       </c>
@@ -5709,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>420</v>
       </c>
@@ -5726,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>421</v>
       </c>
@@ -5743,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>422</v>
       </c>
@@ -5760,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>430</v>
       </c>
@@ -5777,7 +5782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>443</v>
       </c>
@@ -5794,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>445</v>
       </c>
@@ -5811,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>448</v>
       </c>
@@ -5828,7 +5833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>452</v>
       </c>
@@ -5845,7 +5850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>453</v>
       </c>
@@ -5862,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>454</v>
       </c>
@@ -5879,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>455</v>
       </c>
@@ -5896,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>460</v>
       </c>
@@ -5913,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>462</v>
       </c>
@@ -5930,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>463</v>
       </c>
@@ -5947,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>480</v>
       </c>
@@ -5964,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>494</v>
       </c>
@@ -5981,7 +5986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>495</v>
       </c>
@@ -5998,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>496</v>
       </c>
@@ -6015,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>499</v>
       </c>
@@ -6032,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>500</v>
       </c>
@@ -6049,7 +6054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>510</v>
       </c>
@@ -6066,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>513</v>
       </c>
@@ -6083,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>515</v>
       </c>
@@ -6100,7 +6105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>516</v>
       </c>
@@ -6117,7 +6122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>517</v>
       </c>
@@ -6134,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>520</v>
       </c>
@@ -6151,7 +6156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>526</v>
       </c>
@@ -6168,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>530</v>
       </c>
@@ -6185,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>537</v>
       </c>
@@ -6202,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1001</v>
       </c>
@@ -6219,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1002</v>
       </c>
@@ -6236,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1003</v>
       </c>
@@ -6253,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1004</v>
       </c>
@@ -6270,7 +6275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1005</v>
       </c>
@@ -6287,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1006</v>
       </c>
@@ -6304,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1007</v>
       </c>
@@ -6327,6 +6332,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A4C92F77D51DB34BB66DB547BA261888" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="036d0ed6745d5cb6fc93e88a90c24f29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3901be2b-e0aa-425f-8ecd-05b022f3c304" xmlns:ns3="1d72c402-e5ab-4c37-8652-a8939ba1b122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8e2230f21ddac050465166b7244a911" ns2:_="" ns3:_="">
     <xsd:import namespace="3901be2b-e0aa-425f-8ecd-05b022f3c304"/>
@@ -6491,29 +6511,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C397875F-0170-49F1-B233-C2422A3FB730}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D5911EE-9615-44E5-BBB4-20677070942F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02956ECE-B8B2-4ABE-8410-FBE6DDC2253E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02956ECE-B8B2-4ABE-8410-FBE6DDC2253E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D5911EE-9615-44E5-BBB4-20677070942F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C397875F-0170-49F1-B233-C2422A3FB730}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3901be2b-e0aa-425f-8ecd-05b022f3c304"/>
+    <ds:schemaRef ds:uri="1d72c402-e5ab-4c37-8652-a8939ba1b122"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Oferta/Plantas renovables.xlsx
+++ b/Oferta/Plantas renovables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoquintero/Documents/Investigacion andes-EDF/Switch/Sin título/Oferta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F071A40D-0FD4-FF46-9C98-5B8988672E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17FB512-F304-024C-922D-75497117EE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1693,13 +1693,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E272"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -6332,21 +6333,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A4C92F77D51DB34BB66DB547BA261888" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="036d0ed6745d5cb6fc93e88a90c24f29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3901be2b-e0aa-425f-8ecd-05b022f3c304" xmlns:ns3="1d72c402-e5ab-4c37-8652-a8939ba1b122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b8e2230f21ddac050465166b7244a911" ns2:_="" ns3:_="">
     <xsd:import namespace="3901be2b-e0aa-425f-8ecd-05b022f3c304"/>
@@ -6511,24 +6497,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D5911EE-9615-44E5-BBB4-20677070942F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02956ECE-B8B2-4ABE-8410-FBE6DDC2253E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C397875F-0170-49F1-B233-C2422A3FB730}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6545,4 +6529,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02956ECE-B8B2-4ABE-8410-FBE6DDC2253E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D5911EE-9615-44E5-BBB4-20677070942F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>